--- a/Dataset/Captions collection/v5_test_captions_collection.xlsx
+++ b/Dataset/Captions collection/v5_test_captions_collection.xlsx
@@ -573,7 +573,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>This graph depicts the total TKN_About in TKN_Geo in TKN_Year in cubic meters.</t>
+          <t>This graph depicts the TKN_About in TKN_Geo in TKN_Year TKN_UOM meters.</t>
         </is>
       </c>
       <c r="Y2" t="n">
@@ -843,7 +843,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>There is another high of about 102 cubic meters in November.</t>
+          <t>There is another high of about TKN_UOM meters in November.</t>
         </is>
       </c>
       <c r="Y5" t="n">
@@ -933,7 +933,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>This graph depicts the total TKN_About in cubic metres of TKN_Geo in TKN_Year.</t>
+          <t>This graph depicts the TKN_About in TKN_UOM of TKN_Geo in TKN_Year.</t>
         </is>
       </c>
       <c r="Y6" t="n">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>Production starts at approximately 64 cubic metres in January and increases to one of its maximum values of 102 cubic metres in March.</t>
+          <t>Production starts at approximately 64 TKN_UOM in January and increases to one of its maximum values of 102 TKN_UOM in March.</t>
         </is>
       </c>
       <c r="Y7" t="n">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>From July until TKN_About gradually increases again until it reaches its second maximum of 102 cubic metres in November.</t>
+          <t>From July until TKN_About gradually increases again until it reaches its second maximum of 102 TKN_UOM in November.</t>
         </is>
       </c>
       <c r="Y9" t="n">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>There is a sharp drop from November onwards, reaching its minimum value of -1 cubic metres in December.</t>
+          <t>There is a sharp drop from November onwards, reaching its minimum value of -1 TKN_UOM in December.</t>
         </is>
       </c>
       <c r="Y10" t="n">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>This line graph displays total TKN_About in cubic metres in TKN_Geo for TKN_Year.</t>
+          <t>This line graph displays TKN_About in TKN_UOM in TKN_Geo for TKN_Year.</t>
         </is>
       </c>
       <c r="Y11" t="n">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>A steady increase from August to November is followed by a dramatic reduction in December to a yearly low of -1 cubic metres.</t>
+          <t>A steady increase from August to November is followed by a dramatic reduction in December to a yearly low of TKN_UOM metres.</t>
         </is>
       </c>
       <c r="Y14" t="n">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>The following graph shows information about the house TKN_About in TKN_Geo during TKN_Year.</t>
+          <t>The following graph shows information about TKN_About TKN_UOM in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y15" t="n">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>As can be seen from TKN_About have been steadily increasing its value over the year.</t>
+          <t>As can be seen from the graph, TKN_UOM have been steadily increasing its value over the year.</t>
         </is>
       </c>
       <c r="Y16" t="n">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>This graph represents the house TKN_About of TKN_Geo in TKN_Year.</t>
+          <t>This graph represents TKN_About TKN_UOM of TKN_Geo in TKN_Year.</t>
         </is>
       </c>
       <c r="Y18" t="n">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>Continuous increase of the house TKN_About in TKN_Geo during the year TKN_Year.</t>
+          <t>Continuous increase of TKN_About TKN_UOM in TKN_Geo during the year TKN_Year.</t>
         </is>
       </c>
       <c r="Y20" t="n">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>The graph shows the total TKN_About in TKN_Geo for the year TKN_Year.</t>
+          <t>The graph shows TKN_UOM in TKN_Geo for the year TKN_Year.</t>
         </is>
       </c>
       <c r="Y21" t="n">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>The total TKN_About from the year TKN_Year is showen by the graph.</t>
+          <t>The TKN_About from the year TKN_Year is showen by the graph.</t>
         </is>
       </c>
       <c r="Y24" t="n">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>The shown data are about the total TKN_About in TKN_Geo during TKN_Year.</t>
+          <t>The shown data are about TKN_UOM in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y28" t="n">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>Line chart showing TKN_About the Farm product price index in TKN_Geo in TKN_Year.</t>
+          <t>Line chart showing TKN_About TKN_UOM in TKN_Geo in TKN_Year.</t>
         </is>
       </c>
       <c r="Y32" t="n">
@@ -3813,7 +3813,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>The graph shows TKN_About fresh fruits in TKN_Geo over the year of TKN_Year.</t>
+          <t>The graph shows the TKN_About fruits in TKN_Geo over the year of TKN_Year.</t>
         </is>
       </c>
       <c r="Y38" t="n">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>In the TKN_About the year the production was nearly constant, until it fall dramatically in the mounth of August.</t>
+          <t>In the first half TKN_About was nearly constant, until it fall dramatically in the mounth of August.</t>
         </is>
       </c>
       <c r="Y39" t="n">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>Afterwards TKN_About production rises again over the index of 75.</t>
+          <t>Afterwards the TKN_About rises again over the index of 75.</t>
         </is>
       </c>
       <c r="Y40" t="n">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>The graph is a line chart, illustrating the commercial TKN_About in TKN_Geo.</t>
+          <t>The graph is a line chart, illustrating the TKN_About in TKN_Geo.</t>
         </is>
       </c>
       <c r="Y41" t="n">
@@ -4713,7 +4713,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>The commercial TKN_About in TKN_Geo considerably increased over TKN_Year.</t>
+          <t>The TKN_About in TKN_Geo considerably increased over TKN_Year.</t>
         </is>
       </c>
       <c r="Y48" t="n">
@@ -5073,7 +5073,7 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>It shows the number of TKN_About TKN_Geo during TKN_Year.</t>
+          <t>It shows the TKN_UOM of TKN_About TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y52" t="n">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>After that, the number TKN_About TKN_Geo decrease during the last few months of the year.</t>
+          <t>After that, the TKN_UOM TKN_About TKN_Geo decrease during the last few months of the year.</t>
         </is>
       </c>
       <c r="Y54" t="n">
@@ -5433,7 +5433,7 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>The graph showes the TKN_About canada in TKN_Year.</t>
+          <t>The graph showes the TKN_About in TKN_Year.</t>
         </is>
       </c>
       <c r="Y56" t="n">
@@ -5703,7 +5703,7 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>From August till December the graph decrease continuslie till a total number of 28 in December.</t>
+          <t>From August till December the graph decrease continuslie TKN_About TKN_UOM of 28 in December.</t>
         </is>
       </c>
       <c r="Y59" t="n">
@@ -6063,7 +6063,7 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>The line chart describes the number of TKN_About TKN_Geo during TKN_Year.</t>
+          <t>The line chart describes the TKN_UOM of TKN_About TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y63" t="n">
@@ -6243,7 +6243,7 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>During the last few months of the year the number of TKN_About TKN_Geo rapidly decreased.</t>
+          <t>During the last few months of the year the TKN_UOM of TKN_About TKN_Geo rapidly decreased.</t>
         </is>
       </c>
       <c r="Y65" t="n">
@@ -6333,7 +6333,7 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>The number TKN_About TKN_Geo during TKN_Year substantially increased over the summer months.</t>
+          <t>The TKN_UOM TKN_About TKN_Geo during TKN_Year substantially increased over the summer months.</t>
         </is>
       </c>
       <c r="Y66" t="n">
@@ -6603,7 +6603,7 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>The graph illustrates the TKN_About oats in TKN_Geo for the year TKN_Year.</t>
+          <t>The graph illustrates the TKN_About in TKN_Geo for the year TKN_Year.</t>
         </is>
       </c>
       <c r="Y69" t="n">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>There are sharp decreases in production for the TKN_About February, July and November.</t>
+          <t>There are sharp decreases in TKN_About February, July and November.</t>
         </is>
       </c>
       <c r="Y70" t="n">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>This graph shows the monthly TKN_About oats produced in TKN_Geo in TKN_Year in tonnes.</t>
+          <t>This graph shows the monthly amount TKN_About produced in TKN_Geo in TKN_Year in tonnes.</t>
         </is>
       </c>
       <c r="Y71" t="n">
@@ -6873,7 +6873,7 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>Oat production stayed within the TKN_About 0 and 97 tonnes each month.</t>
+          <t>Oat TKN_About 0 and 97 TKN_UOM each month.</t>
         </is>
       </c>
       <c r="Y72" t="n">
@@ -6963,7 +6963,7 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>While most months averaged production at around 45 tonnes, February, June and July saw dips in production to around 7 tonnes and the fall months saw a higher harvest, -48 and above 90 tonnes consecutively.</t>
+          <t>While most months TKN_About at around 45 TKN_UOM, February, June and July saw dips in production to around 7 TKN_UOM and the fall months saw a higher harvest, -48 and above 90 TKN_UOM consecutively.</t>
         </is>
       </c>
       <c r="Y73" t="n">
@@ -7053,7 +7053,7 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>The following graph depicts the Canadian TKN_About oats in tonnes during TKN_Year.</t>
+          <t>The following graph depicts the Canadian TKN_About in TKN_UOM during TKN_Year.</t>
         </is>
       </c>
       <c r="Y74" t="n">
@@ -7143,7 +7143,7 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>In January approximately 60 tonnes were produced, after which a sharp drop can be observed for February, reaching slightly below 15.</t>
+          <t>In January approximately 60 TKN_UOM were produced, after which a sharp drop can be observed for February, reaching slightly below 15.</t>
         </is>
       </c>
       <c r="Y75" t="n">
@@ -7413,7 +7413,7 @@
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>Following this there is a drop, and production remains almost unchanged during November and December at 45.</t>
+          <t>Following this there is a drop, TKN_About remains almost unchanged during November and December at 45.</t>
         </is>
       </c>
       <c r="Y78" t="n">
@@ -7503,7 +7503,7 @@
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>This graph depicts the TKN_About oats in tonnes in TKN_Geo during TKN_Year.</t>
+          <t>This graph depicts the TKN_About in TKN_UOM in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y79" t="n">
@@ -7683,7 +7683,7 @@
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>For the following months production slightly increases until August.</t>
+          <t>For the following TKN_About slightly increases until August.</t>
         </is>
       </c>
       <c r="Y81" t="n">
@@ -7773,7 +7773,7 @@
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>Between August and September a rapid increase in production can be observed, indicating the TKN_About over 96 in September.</t>
+          <t>Between August and September a rapid increase TKN_About can be observed, indicating the maximum of over 96 in September.</t>
         </is>
       </c>
       <c r="Y82" t="n">
@@ -7953,7 +7953,7 @@
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>The TKN_About oats strongly fluctuated over the TKN_Year in TKN_Geo.</t>
+          <t>The TKN_About strongly fluctuated over the TKN_Year in TKN_Geo.</t>
         </is>
       </c>
       <c r="Y84" t="n">
@@ -8313,7 +8313,7 @@
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>The figure shows a line chart about the production TKN_About (in tonnes) in TKN_Geo during TKN_Year.</t>
+          <t>The figure shows a line chart about the TKN_About (in tonnes) in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y88" t="n">
@@ -8493,7 +8493,7 @@
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>Even that, if it has been recorded a significant growth from November to December, where the production TKN_About during TKN_Year reached its peak.</t>
+          <t>Even that, if it has been recorded a significant growth from November to December, where the TKN_About during TKN_Year reached its peak.</t>
         </is>
       </c>
       <c r="Y90" t="n">
@@ -8583,7 +8583,7 @@
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>The graph shows the production TKN_About in tonnes in TKN_Geo in TKN_Year.</t>
+          <t>The graph shows the TKN_About in TKN_UOM in TKN_Geo in TKN_Year.</t>
         </is>
       </c>
       <c r="Y91" t="n">
@@ -9123,7 +9123,7 @@
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>The line chart is displaying the recorded data about production TKN_About in TKN_Geo during TKN_Year.</t>
+          <t>The line chart is displaying the recorded data about TKN_About in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y97" t="n">
@@ -9213,7 +9213,7 @@
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>The TKN_About production have been recorded during the months of January, August and November.</t>
+          <t>The minimum TKN_About have been recorded during the months of January, August and November.</t>
         </is>
       </c>
       <c r="Y98" t="n">
@@ -9393,7 +9393,7 @@
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>The TKN_About production over the year was recorded during December.</t>
+          <t>The maximum TKN_About over the year was recorded during December.</t>
         </is>
       </c>
       <c r="Y100" t="n">
@@ -9483,7 +9483,7 @@
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>This graph represents the production TKN_About in TKN_Geo in TKN_Year (in tonnes).</t>
+          <t>This graph represents the TKN_About in TKN_Geo in TKN_Year (in tonnes).</t>
         </is>
       </c>
       <c r="Y101" t="n">
@@ -9663,7 +9663,7 @@
       </c>
       <c r="X103" t="inlineStr">
         <is>
-          <t>There is a sharp increase during February and during the following months production levels off between 42 and 61.</t>
+          <t>There is a sharp increase during February and during the TKN_About levels off between 42 and 61.</t>
         </is>
       </c>
       <c r="Y103" t="n">
@@ -9843,7 +9843,7 @@
       </c>
       <c r="X105" t="inlineStr">
         <is>
-          <t>For the following -116 months production TKN_About remains steady at approximately 47.</t>
+          <t>For the following -116 months TKN_About remains steady at approximately 47.</t>
         </is>
       </c>
       <c r="Y105" t="n">
@@ -9933,7 +9933,7 @@
       </c>
       <c r="X106" t="inlineStr">
         <is>
-          <t>After a drop in November, production peaks in December with up to 101 tonnes.</t>
+          <t>After a drop TKN_About peaks in December with up to 101 tonnes.</t>
         </is>
       </c>
       <c r="Y106" t="n">
